--- a/src/main/webapp/学生出入申请表.xlsx
+++ b/src/main/webapp/学生出入申请表.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -59,7 +59,7 @@
     <t>201710913106</t>
   </si>
   <si>
-    <t>许路洋</t>
+    <t>路洋</t>
   </si>
   <si>
     <t>河南工程学院</t>
@@ -68,10 +68,10 @@
     <t>计算机学院</t>
   </si>
   <si>
-    <t>计算机科学与技术</t>
-  </si>
-  <si>
-    <t>1741</t>
+    <t>软件工程</t>
+  </si>
+  <si>
+    <t>1742</t>
   </si>
   <si>
     <t>2020-03-09</t>
@@ -83,25 +83,10 @@
     <t>周口市</t>
   </si>
   <si>
-    <t>回计划VS八十八的巴士的白色不代表上帝啊是</t>
-  </si>
-  <si>
     <t>返校</t>
   </si>
   <si>
     <t>通过</t>
-  </si>
-  <si>
-    <t>201710913101</t>
-  </si>
-  <si>
-    <t>回家</t>
-  </si>
-  <si>
-    <t>张三</t>
-  </si>
-  <si>
-    <t>林伟贤</t>
   </si>
 </sst>
 </file>
@@ -274,215 +259,10 @@
         <v>23</v>
       </c>
       <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
         <v>24</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
